--- a/DataStructures/DataStructures.xlsx
+++ b/DataStructures/DataStructures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\DSALGO\DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F65C35B-6968-4071-BA9B-05D9AF02DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3B649-9D16-4679-8FEF-5A43F7643501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A1923A-F4C3-4914-A6FD-E53C9CBC5811}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Datastructures</t>
   </si>
@@ -123,6 +123,48 @@
   </si>
   <si>
     <t>All applications of both stacks and queues are applications of linked list.</t>
+  </si>
+  <si>
+    <t>Hash Table / Hash Map</t>
+  </si>
+  <si>
+    <t>Key-value pair</t>
+  </si>
+  <si>
+    <t>It is similar like Object but the diifference is we can use of any key of specified as it don't have reserved keys. The sam functionality is fulfilled by using Map.</t>
+  </si>
+  <si>
+    <t>Hashing Function.   Set to store a key-value pair. Get to retrieve a value given its key. Remove to delete a  key value pair.</t>
+  </si>
+  <si>
+    <t>Constant time lookup and Insertion are required. Database indexing and Caches</t>
+  </si>
+  <si>
+    <t>Non-Linear Data Structure</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Directed, Undirected</t>
+  </si>
+  <si>
+    <t>Tree is a secific type of Graph Data Structure.</t>
+  </si>
+  <si>
+    <t>Non-Linear Data Structure.</t>
+  </si>
+  <si>
+    <t>Google Maps, Social Media Sites</t>
   </si>
 </sst>
 </file>
@@ -158,10 +200,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,7 +221,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,13 +244,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -246,13 +294,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -296,13 +344,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -346,16 +394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>472440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -384,8 +432,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8069580" y="6591300"/>
-          <a:ext cx="3649980" cy="1272540"/>
+          <a:off x="10431780" y="6591300"/>
+          <a:ext cx="3649980" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6152</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E41281-93D9-4EE3-E309-834C98A3FCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424161" y="8161020"/>
+          <a:ext cx="3663751" cy="2004060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9120DC7-1E1A-936F-2F61-D7CB3E844819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424160" y="10172700"/>
+          <a:ext cx="3665220" cy="1836035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31365</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5F1B34-91BA-4FB1-8C74-F2C0AAE7C04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424161" y="12001501"/>
+          <a:ext cx="3688964" cy="2194559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -694,665 +892,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EF5184-7D16-466D-A62C-FEA4E5BE63CD}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="1" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="G36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="H36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="J25:O35"/>
+  <mergeCells count="70">
+    <mergeCell ref="H64:H75"/>
+    <mergeCell ref="I64:I75"/>
+    <mergeCell ref="J64:J75"/>
+    <mergeCell ref="K64:K75"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="E64:E75"/>
+    <mergeCell ref="F64:F75"/>
+    <mergeCell ref="G64:G75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="H43:H53"/>
+    <mergeCell ref="I43:I53"/>
+    <mergeCell ref="J43:J53"/>
+    <mergeCell ref="K43:K53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="E54:E63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="G54:G63"/>
+    <mergeCell ref="H54:H63"/>
+    <mergeCell ref="I54:I63"/>
+    <mergeCell ref="J54:J63"/>
+    <mergeCell ref="K54:K63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="G43:G53"/>
+    <mergeCell ref="I25:I35"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="L25:Q35"/>
     <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C36:C42"/>
     <mergeCell ref="D36:D42"/>
     <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="H25:H35"/>
     <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="F25:F35"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="K14:K24"/>
     <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B25:B35"/>
-    <mergeCell ref="C25:C35"/>
     <mergeCell ref="D25:D35"/>
     <mergeCell ref="E25:E35"/>
-    <mergeCell ref="H25:H35"/>
-    <mergeCell ref="I25:I35"/>
+    <mergeCell ref="F25:F35"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="J25:J35"/>
+    <mergeCell ref="K25:K35"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="E14:E24"/>
     <mergeCell ref="F14:F24"/>
     <mergeCell ref="G14:G24"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="J14:J24"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="K3:K13"/>
+    <mergeCell ref="J3:J13"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="F3:F13"/>
+    <mergeCell ref="H3:H13"/>
     <mergeCell ref="I3:I13"/>
-    <mergeCell ref="H3:H13"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="F3:F13"/>
-    <mergeCell ref="G3:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataStructures/DataStructures.xlsx
+++ b/DataStructures/DataStructures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\DSALGO\DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3B649-9D16-4679-8FEF-5A43F7643501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689F3A8-DDDA-43A3-8F27-6799F136E58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A1923A-F4C3-4914-A6FD-E53C9CBC5811}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>Key-value pair</t>
   </si>
   <si>
-    <t>It is similar like Object but the diifference is we can use of any key of specified as it don't have reserved keys. The sam functionality is fulfilled by using Map.</t>
-  </si>
-  <si>
     <t>Hashing Function.   Set to store a key-value pair. Get to retrieve a value given its key. Remove to delete a  key value pair.</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Google Maps, Social Media Sites</t>
+  </si>
+  <si>
+    <t>It is similar like Object but the diifference is we can use of any key of specified as it don't have reserved keys. The same functionality is fulfilled by using Map.</t>
   </si>
 </sst>
 </file>
@@ -215,13 +215,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +895,7 @@
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,22 +912,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -953,1179 +953,1119 @@
       <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="H43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="B64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="H64:H75"/>
-    <mergeCell ref="I64:I75"/>
-    <mergeCell ref="J64:J75"/>
-    <mergeCell ref="K64:K75"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="D64:D75"/>
-    <mergeCell ref="E64:E75"/>
-    <mergeCell ref="F64:F75"/>
-    <mergeCell ref="G64:G75"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="C64:C75"/>
-    <mergeCell ref="H43:H53"/>
-    <mergeCell ref="I43:I53"/>
-    <mergeCell ref="J43:J53"/>
-    <mergeCell ref="K43:K53"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="E54:E63"/>
-    <mergeCell ref="F54:F63"/>
-    <mergeCell ref="G54:G63"/>
-    <mergeCell ref="H54:H63"/>
-    <mergeCell ref="I54:I63"/>
-    <mergeCell ref="J54:J63"/>
-    <mergeCell ref="K54:K63"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="G43:G53"/>
-    <mergeCell ref="I25:I35"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="L25:Q35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="K36:K42"/>
-    <mergeCell ref="H25:H35"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="K14:K24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="D25:D35"/>
-    <mergeCell ref="E25:E35"/>
-    <mergeCell ref="F25:F35"/>
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="J25:J35"/>
-    <mergeCell ref="K25:K35"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="I14:I24"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="G14:G24"/>
-    <mergeCell ref="J14:J24"/>
+  <mergeCells count="72">
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="D3:D13"/>
@@ -2136,6 +2076,68 @@
     <mergeCell ref="F3:F13"/>
     <mergeCell ref="H3:H13"/>
     <mergeCell ref="I3:I13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="E14:E24"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="G14:G24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="E25:E35"/>
+    <mergeCell ref="F25:F35"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="H25:H35"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="K14:K24"/>
+    <mergeCell ref="J25:J35"/>
+    <mergeCell ref="K25:K35"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="J14:J24"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="G43:G53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="E54:E63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="G54:G63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="E64:E75"/>
+    <mergeCell ref="F64:F75"/>
+    <mergeCell ref="G64:G75"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="H64:H75"/>
+    <mergeCell ref="I64:I75"/>
+    <mergeCell ref="J64:J75"/>
+    <mergeCell ref="K64:K75"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="H43:H53"/>
+    <mergeCell ref="I43:I53"/>
+    <mergeCell ref="J43:J53"/>
+    <mergeCell ref="K43:K53"/>
+    <mergeCell ref="H54:H63"/>
+    <mergeCell ref="I54:I63"/>
+    <mergeCell ref="J54:J63"/>
+    <mergeCell ref="K54:K63"/>
+    <mergeCell ref="I25:I35"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="L25:Q35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
